--- a/Varios/Globant Encuentros.xlsx
+++ b/Varios/Globant Encuentros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>Introducción a Local Storage</t>
+  </si>
+  <si>
+    <t>Componentes y propiedades: Introducción a React / Creación de proyecto / Componentización del home</t>
+  </si>
+  <si>
+    <t>React Router DOM: Enrutamiento en una SPA / Configuración del enrutador / Creación de la navegación de la tienda</t>
+  </si>
+  <si>
+    <t>Dinamismo con React: Renderizado dinámico / Renderización dinámica de productos / Creación de vistas de detalle de producto</t>
+  </si>
+  <si>
+    <t>Gestión de Estados: Introducción a gestión de estados / Manejar estados para el subtotal del detalle / Manejar estados para añadir al carrito</t>
+  </si>
+  <si>
+    <t>Gestión de Estados II: Hook useState / Manejar estados para cambiar la miniatura / Manejar estados para cambiar sugerencias</t>
+  </si>
+  <si>
+    <t>Desafío integrador: Objetivos actividad integradora / Challenge / Challenge</t>
+  </si>
+  <si>
+    <t>Integrador Frontend</t>
+  </si>
+  <si>
+    <t>Recuperatorio Frontend</t>
   </si>
 </sst>
 </file>
@@ -424,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,6 +550,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -877,8 +904,8 @@
   <dimension ref="A1:O175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,30 +948,30 @@
         <v>52</v>
       </c>
       <c r="H1" s="19">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J1" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="L1" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>55</v>
       </c>
       <c r="N1" s="22">
         <f>+H1+J1+L1</f>
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O1" s="1">
         <f>+N1*0.2</f>
-        <v>32.200000000000003</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -975,10 +1002,10 @@
       <c r="C3" s="8">
         <v>45019</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="36">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5"/>
@@ -993,8 +1020,8 @@
       <c r="C4" s="8">
         <v>45020</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1009,10 +1036,10 @@
       <c r="C5" s="8">
         <v>45021</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="36">
         <v>2</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1029,8 +1056,8 @@
       <c r="C6" s="8">
         <v>45026</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="12" t="s">
         <v>27</v>
       </c>
@@ -1045,8 +1072,8 @@
       <c r="C7" s="8">
         <v>45027</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
@@ -1061,10 +1088,10 @@
       <c r="C8" s="8">
         <v>45028</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="36">
         <v>3</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -1081,8 +1108,8 @@
       <c r="C9" s="8">
         <v>45029</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="12" t="s">
         <v>28</v>
       </c>
@@ -1097,8 +1124,8 @@
       <c r="C10" s="8">
         <v>45033</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1113,8 +1140,8 @@
       <c r="C11" s="8">
         <v>45034</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
@@ -1149,10 +1176,10 @@
       <c r="C13" s="8">
         <v>45036</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="36">
         <v>4</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="40" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1169,8 +1196,8 @@
       <c r="C14" s="8">
         <v>45040</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1185,8 +1212,8 @@
       <c r="C15" s="8">
         <v>45041</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1201,8 +1228,8 @@
       <c r="C16" s="8">
         <v>45042</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1217,8 +1244,8 @@
       <c r="C17" s="8">
         <v>45043</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="12" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1260,7 @@
       <c r="C18" s="8">
         <v>45048</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
@@ -1251,10 +1278,10 @@
       <c r="C19" s="8">
         <v>45049</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="36">
         <v>5</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1271,8 +1298,8 @@
       <c r="C20" s="8">
         <v>45050</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="12" t="s">
         <v>32</v>
       </c>
@@ -1287,8 +1314,8 @@
       <c r="C21" s="8">
         <v>45054</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="12" t="s">
         <v>32</v>
       </c>
@@ -1303,8 +1330,8 @@
       <c r="C22" s="8">
         <v>45055</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="12" t="s">
         <v>32</v>
       </c>
@@ -1319,8 +1346,8 @@
       <c r="C23" s="8">
         <v>45056</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="12" t="s">
         <v>32</v>
       </c>
@@ -1335,8 +1362,8 @@
       <c r="C24" s="8">
         <v>45057</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="39"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="12" t="s">
         <v>32</v>
       </c>
@@ -1351,8 +1378,8 @@
       <c r="C25" s="8">
         <v>45062</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="12" t="s">
         <v>32</v>
       </c>
@@ -1367,8 +1394,8 @@
       <c r="C26" s="8">
         <v>45062</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="12" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1410,7 @@
       <c r="C27" s="8">
         <v>45063</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="14" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1428,7 @@
       <c r="C28" s="8">
         <v>45064</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="14" t="s">
         <v>9</v>
       </c>
@@ -1439,10 +1466,10 @@
       <c r="C30" s="8">
         <v>45069</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="36">
         <v>7</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -1459,8 +1486,8 @@
       <c r="C31" s="8">
         <v>45070</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="39"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="12" t="s">
         <v>36</v>
       </c>
@@ -1475,8 +1502,8 @@
       <c r="C32" s="8">
         <v>45075</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="39"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="12" t="s">
         <v>36</v>
       </c>
@@ -1491,8 +1518,8 @@
       <c r="C33" s="8">
         <v>45076</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="39"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="12" t="s">
         <v>36</v>
       </c>
@@ -1507,8 +1534,8 @@
       <c r="C34" s="8">
         <v>45077</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="39"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="12" t="s">
         <v>36</v>
       </c>
@@ -1523,8 +1550,8 @@
       <c r="C35" s="8">
         <v>45078</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="39"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="12" t="s">
         <v>36</v>
       </c>
@@ -1539,8 +1566,8 @@
       <c r="C36" s="8">
         <v>45082</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="39"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="12" t="s">
         <v>36</v>
       </c>
@@ -1555,8 +1582,8 @@
       <c r="C37" s="8">
         <v>45083</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="39"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="12" t="s">
         <v>36</v>
       </c>
@@ -1571,8 +1598,8 @@
       <c r="C38" s="8">
         <v>45084</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="39"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="12" t="s">
         <v>36</v>
       </c>
@@ -1587,8 +1614,8 @@
       <c r="C39" s="8">
         <v>45085</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="39"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="12" t="s">
         <v>36</v>
       </c>
@@ -1603,13 +1630,13 @@
       <c r="C40" s="8">
         <v>45089</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="36">
         <v>8</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1623,9 +1650,9 @@
       <c r="C41" s="8">
         <v>45090</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="45"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -1637,9 +1664,9 @@
       <c r="C42" s="8">
         <v>45091</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="45"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -1651,9 +1678,9 @@
       <c r="C43" s="8">
         <v>45092</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="45"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1665,8 +1692,8 @@
       <c r="C44" s="8">
         <v>45098</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="39"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="10" t="s">
         <v>23</v>
       </c>
@@ -1681,8 +1708,8 @@
       <c r="C45" s="8">
         <v>45099</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="39"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="5" t="s">
         <v>21</v>
       </c>
@@ -1697,9 +1724,9 @@
       <c r="C46" s="8">
         <v>45103</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="45" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1713,9 +1740,9 @@
       <c r="C47" s="8">
         <v>45104</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="45"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -1727,9 +1754,9 @@
       <c r="C48" s="8">
         <v>45105</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="45"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -1741,9 +1768,9 @@
       <c r="C49" s="8">
         <v>45106</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="45"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1755,8 +1782,8 @@
       <c r="C50" s="8">
         <v>45110</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="39"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="5" t="s">
         <v>19</v>
       </c>
@@ -1771,9 +1798,9 @@
       <c r="C51" s="11">
         <v>45111</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="46" t="s">
+      <c r="D51" s="37"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="47" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1787,9 +1814,9 @@
       <c r="C52" s="8">
         <v>45112</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="46"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1801,9 +1828,9 @@
       <c r="C53" s="8">
         <v>45113</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="46"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1815,9 +1842,9 @@
       <c r="C54" s="8">
         <v>45117</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="46"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="47"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -1829,9 +1856,9 @@
       <c r="C55" s="8">
         <v>45118</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="45" t="s">
+      <c r="D55" s="37"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="46" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1845,9 +1872,9 @@
       <c r="C56" s="8">
         <v>45119</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="45"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -1859,9 +1886,9 @@
       <c r="C57" s="8">
         <v>45120</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="45" t="s">
+      <c r="D57" s="37"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1875,9 +1902,9 @@
       <c r="C58" s="8">
         <v>45124</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="45"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1889,8 +1916,8 @@
       <c r="C59" s="8">
         <v>45125</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="39"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="5" t="s">
         <v>17</v>
       </c>
@@ -1905,13 +1932,13 @@
       <c r="C60" s="8">
         <v>45126</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="36">
         <v>9</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="44" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1925,9 +1952,9 @@
       <c r="C61" s="8">
         <v>45127</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="44"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="45"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -1939,10 +1966,10 @@
       <c r="C62" s="8">
         <v>45131</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="36">
         <v>10</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="41" t="s">
         <v>39</v>
       </c>
       <c r="F62" s="5"/>
@@ -1957,8 +1984,8 @@
       <c r="C63" s="8">
         <v>45132</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="42"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,8 +1998,8 @@
       <c r="C64" s="8">
         <v>45133</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="42"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,8 +2012,8 @@
       <c r="C65" s="8">
         <v>45134</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="42"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,8 +2026,8 @@
       <c r="C66" s="8">
         <v>45138</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="42"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="43"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,8 +2040,8 @@
       <c r="C67" s="11">
         <v>45139</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="42"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,8 +2054,8 @@
       <c r="C68" s="8">
         <v>45140</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="42"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,8 +2068,8 @@
       <c r="C69" s="8">
         <v>45141</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="42"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="43"/>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,8 +2082,8 @@
       <c r="C70" s="8">
         <v>45146</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="42"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,10 +2096,10 @@
       <c r="C71" s="8">
         <v>45147</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="36">
         <v>11</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="41" t="s">
         <v>40</v>
       </c>
       <c r="F71" s="5"/>
@@ -2087,8 +2114,8 @@
       <c r="C72" s="11">
         <v>45148</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="42"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,8 +2128,8 @@
       <c r="C73" s="8">
         <v>45152</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="42"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,8 +2142,8 @@
       <c r="C74" s="8">
         <v>45153</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="42"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="5" t="s">
         <v>41</v>
       </c>
@@ -2131,8 +2158,8 @@
       <c r="C75" s="8">
         <v>45154</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="42"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="43"/>
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,8 +2172,8 @@
       <c r="C76" s="8">
         <v>45155</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="42"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,8 +2186,8 @@
       <c r="C77" s="8">
         <v>45160</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="42"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,8 +2200,8 @@
       <c r="C78" s="8">
         <v>45161</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="42"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,8 +2214,8 @@
       <c r="C79" s="8">
         <v>45162</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="42"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="43"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,8 +2228,8 @@
       <c r="C80" s="8">
         <v>45166</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="41"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,10 +2242,10 @@
       <c r="C81" s="8">
         <v>45167</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="39">
         <v>12</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="40" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="5"/>
@@ -2233,8 +2260,8 @@
       <c r="C82" s="8">
         <v>45168</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,8 +2274,8 @@
       <c r="C83" s="8">
         <v>45169</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,8 +2288,8 @@
       <c r="C84" s="8">
         <v>45173</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,8 +2302,8 @@
       <c r="C85" s="8">
         <v>45174</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,8 +2316,8 @@
       <c r="C86" s="8">
         <v>45175</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,8 +2330,8 @@
       <c r="C87" s="8">
         <v>45176</v>
       </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,8 +2344,8 @@
       <c r="C88" s="8">
         <v>45180</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,8 +2358,8 @@
       <c r="C89" s="8">
         <v>45181</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,8 +2372,8 @@
       <c r="C90" s="8">
         <v>45182</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,8 +2386,8 @@
       <c r="C91" s="8">
         <v>45183</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,10 +2400,10 @@
       <c r="C92" s="8">
         <v>45187</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="39">
         <v>13</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E92" s="40" t="s">
         <v>43</v>
       </c>
       <c r="F92" s="5"/>
@@ -2391,8 +2418,8 @@
       <c r="C93" s="8">
         <v>45188</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,8 +2432,8 @@
       <c r="C94" s="8">
         <v>45189</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2419,8 +2446,8 @@
       <c r="C95" s="8">
         <v>45190</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,10 +2460,10 @@
       <c r="C96" s="8">
         <v>45194</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="36">
         <v>14</v>
       </c>
-      <c r="E96" s="40" t="s">
+      <c r="E96" s="41" t="s">
         <v>44</v>
       </c>
       <c r="F96" s="5"/>
@@ -2451,8 +2478,8 @@
       <c r="C97" s="8">
         <v>45195</v>
       </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="42"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="43"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,8 +2492,8 @@
       <c r="C98" s="11">
         <v>45196</v>
       </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="42"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="43"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,8 +2506,8 @@
       <c r="C99" s="8">
         <v>45197</v>
       </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="42"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="43"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2493,8 +2520,8 @@
       <c r="C100" s="8">
         <v>45201</v>
       </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="42"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="43"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,8 +2534,8 @@
       <c r="C101" s="8">
         <v>45202</v>
       </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="42"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="43"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,8 +2548,8 @@
       <c r="C102" s="8">
         <v>45203</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="42"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="43"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,8 +2562,8 @@
       <c r="C103" s="8">
         <v>45204</v>
       </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="42"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="43"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,8 +2576,8 @@
       <c r="C104" s="8">
         <v>45208</v>
       </c>
-      <c r="D104" s="37"/>
-      <c r="E104" s="41"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="42"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2581,10 +2608,10 @@
       <c r="C106" s="8">
         <v>45210</v>
       </c>
-      <c r="D106" s="35">
+      <c r="D106" s="36">
         <v>15</v>
       </c>
-      <c r="E106" s="40" t="s">
+      <c r="E106" s="41" t="s">
         <v>46</v>
       </c>
       <c r="F106" s="5"/>
@@ -2599,8 +2626,8 @@
       <c r="C107" s="8">
         <v>45211</v>
       </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="42"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="43"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2613,8 +2640,8 @@
       <c r="C108" s="8">
         <v>45216</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="42"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="43"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,8 +2654,8 @@
       <c r="C109" s="8">
         <v>45217</v>
       </c>
-      <c r="D109" s="37"/>
-      <c r="E109" s="41"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="42"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,10 +2668,10 @@
       <c r="C110" s="8">
         <v>45218</v>
       </c>
-      <c r="D110" s="35">
+      <c r="D110" s="36">
         <v>16</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F110" s="5"/>
@@ -2659,8 +2686,8 @@
       <c r="C111" s="8">
         <v>45222</v>
       </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="42"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="43"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,8 +2700,8 @@
       <c r="C112" s="8">
         <v>45223</v>
       </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="42"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="43"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,8 +2714,8 @@
       <c r="C113" s="8">
         <v>45224</v>
       </c>
-      <c r="D113" s="36"/>
-      <c r="E113" s="42"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="43"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,8 +2728,8 @@
       <c r="C114" s="8">
         <v>45225</v>
       </c>
-      <c r="D114" s="36"/>
-      <c r="E114" s="42"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="43"/>
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,8 +2742,8 @@
       <c r="C115" s="8">
         <v>45229</v>
       </c>
-      <c r="D115" s="36"/>
-      <c r="E115" s="42"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="43"/>
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,8 +2756,8 @@
       <c r="C116" s="8">
         <v>45230</v>
       </c>
-      <c r="D116" s="36"/>
-      <c r="E116" s="42"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="43"/>
       <c r="F116" s="5" t="s">
         <v>50</v>
       </c>
@@ -2745,8 +2772,8 @@
       <c r="C117" s="8">
         <v>45231</v>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="41"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="42"/>
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,10 +2804,10 @@
       <c r="C119" s="8">
         <v>45236</v>
       </c>
-      <c r="D119" s="35">
+      <c r="D119" s="36">
         <v>18</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F119" s="5" t="s">
@@ -2797,8 +2824,8 @@
       <c r="C120" s="8">
         <v>45237</v>
       </c>
-      <c r="D120" s="36"/>
-      <c r="E120" s="42"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="43"/>
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,8 +2838,8 @@
       <c r="C121" s="8">
         <v>45238</v>
       </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="42"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="43"/>
       <c r="F121" s="5"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,8 +2852,8 @@
       <c r="C122" s="8">
         <v>45239</v>
       </c>
-      <c r="D122" s="36"/>
-      <c r="E122" s="42"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="43"/>
       <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,8 +2866,8 @@
       <c r="C123" s="8">
         <v>45243</v>
       </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="42"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="43"/>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,8 +2880,8 @@
       <c r="C124" s="8">
         <v>45244</v>
       </c>
-      <c r="D124" s="36"/>
-      <c r="E124" s="42"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="43"/>
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,8 +2894,8 @@
       <c r="C125" s="8">
         <v>45245</v>
       </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="42"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="43"/>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,8 +2908,8 @@
       <c r="C126" s="11">
         <v>45246</v>
       </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="42"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="43"/>
       <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,8 +2922,8 @@
       <c r="C127" s="8">
         <v>45251</v>
       </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="42"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="43"/>
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,8 +2936,8 @@
       <c r="C128" s="11">
         <v>45252</v>
       </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="42"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="43"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,8 +2950,8 @@
       <c r="C129" s="8">
         <v>45253</v>
       </c>
-      <c r="D129" s="36"/>
-      <c r="E129" s="42"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="43"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,8 +2964,8 @@
       <c r="C130" s="8">
         <v>45257</v>
       </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="42"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="43"/>
       <c r="F130" s="26" t="s">
         <v>61</v>
       </c>
@@ -2953,8 +2980,8 @@
       <c r="C131" s="8">
         <v>45258</v>
       </c>
-      <c r="D131" s="37"/>
-      <c r="E131" s="41"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="42"/>
       <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,10 +3012,10 @@
       <c r="C133" s="8">
         <v>45260</v>
       </c>
-      <c r="D133" s="35">
+      <c r="D133" s="36">
         <v>20</v>
       </c>
-      <c r="E133" s="40" t="s">
+      <c r="E133" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F133" s="5"/>
@@ -2999,8 +3026,8 @@
       <c r="C134" s="8">
         <v>45261</v>
       </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="42"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="43"/>
       <c r="F134" s="27" t="s">
         <v>62</v>
       </c>
@@ -3015,8 +3042,8 @@
       <c r="C135" s="8">
         <v>45264</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="42"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="43"/>
       <c r="F135" s="5"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,8 +3056,8 @@
       <c r="C136" s="8">
         <v>45265</v>
       </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="42"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="43"/>
       <c r="F136" s="5"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,8 +3070,8 @@
       <c r="C137" s="8">
         <v>45266</v>
       </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="42"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="43"/>
       <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3057,8 +3084,8 @@
       <c r="C138" s="8">
         <v>45267</v>
       </c>
-      <c r="D138" s="36"/>
-      <c r="E138" s="42"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="43"/>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,8 +3098,8 @@
       <c r="C139" s="8">
         <v>45271</v>
       </c>
-      <c r="D139" s="36"/>
-      <c r="E139" s="42"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="43"/>
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,8 +3112,8 @@
       <c r="C140" s="8">
         <v>45272</v>
       </c>
-      <c r="D140" s="36"/>
-      <c r="E140" s="42"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="43"/>
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3099,8 +3126,8 @@
       <c r="C141" s="8">
         <v>45273</v>
       </c>
-      <c r="D141" s="36"/>
-      <c r="E141" s="42"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="43"/>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,8 +3140,8 @@
       <c r="C142" s="8">
         <v>45274</v>
       </c>
-      <c r="D142" s="36"/>
-      <c r="E142" s="42"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="43"/>
       <c r="F142" s="5"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,8 +3154,8 @@
       <c r="C143" s="8">
         <v>45278</v>
       </c>
-      <c r="D143" s="36"/>
-      <c r="E143" s="42"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="43"/>
       <c r="F143" s="5" t="s">
         <v>64</v>
       </c>
@@ -3143,8 +3170,8 @@
       <c r="C144" s="8">
         <v>45279</v>
       </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="42"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="43"/>
       <c r="F144" s="5" t="s">
         <v>64</v>
       </c>
@@ -3159,8 +3186,8 @@
       <c r="C145" s="8">
         <v>45280</v>
       </c>
-      <c r="D145" s="37"/>
-      <c r="E145" s="41"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="42"/>
       <c r="F145" s="5" t="s">
         <v>59</v>
       </c>
@@ -3200,14 +3227,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B148" s="48"/>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="49"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="50"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="29">
@@ -3219,10 +3246,10 @@
       <c r="C149" s="8">
         <v>45306</v>
       </c>
-      <c r="D149" s="35">
+      <c r="D149" s="36">
         <v>1</v>
       </c>
-      <c r="E149" s="40" t="s">
+      <c r="E149" s="41" t="s">
         <v>65</v>
       </c>
       <c r="F149" s="32"/>
@@ -3237,8 +3264,8 @@
       <c r="C150" s="8">
         <v>45307</v>
       </c>
-      <c r="D150" s="36"/>
-      <c r="E150" s="42"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="43"/>
       <c r="F150" s="32"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3251,8 +3278,8 @@
       <c r="C151" s="8">
         <v>45308</v>
       </c>
-      <c r="D151" s="36"/>
-      <c r="E151" s="42"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="43"/>
       <c r="F151" s="32"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,8 +3292,8 @@
       <c r="C152" s="8">
         <v>45309</v>
       </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="42"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="43"/>
       <c r="F152" s="32"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,8 +3306,8 @@
       <c r="C153" s="8">
         <v>45313</v>
       </c>
-      <c r="D153" s="36"/>
-      <c r="E153" s="42"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="43"/>
       <c r="F153" s="32"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,8 +3320,8 @@
       <c r="C154" s="8">
         <v>45314</v>
       </c>
-      <c r="D154" s="36"/>
-      <c r="E154" s="42"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="43"/>
       <c r="F154" s="32"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,8 +3334,8 @@
       <c r="C155" s="8">
         <v>45315</v>
       </c>
-      <c r="D155" s="36"/>
-      <c r="E155" s="42"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="43"/>
       <c r="F155" s="29"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,8 +3348,8 @@
       <c r="C156" s="8">
         <v>45316</v>
       </c>
-      <c r="D156" s="37"/>
-      <c r="E156" s="41"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="42"/>
       <c r="F156" s="29"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,10 +3362,10 @@
       <c r="C157" s="11">
         <v>45320</v>
       </c>
-      <c r="D157" s="35">
+      <c r="D157" s="36">
         <v>2</v>
       </c>
-      <c r="E157" s="35" t="s">
+      <c r="E157" s="36" t="s">
         <v>66</v>
       </c>
       <c r="F157" s="29" t="s">
@@ -3355,8 +3382,8 @@
       <c r="C158" s="8">
         <v>45321</v>
       </c>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
       <c r="F158" s="29" t="s">
         <v>69</v>
       </c>
@@ -3371,8 +3398,8 @@
       <c r="C159" s="8">
         <v>45322</v>
       </c>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
       <c r="F159" s="29" t="s">
         <v>70</v>
       </c>
@@ -3387,8 +3414,8 @@
       <c r="C160" s="8">
         <v>45323</v>
       </c>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
       <c r="F160" s="29" t="s">
         <v>71</v>
       </c>
@@ -3403,8 +3430,8 @@
       <c r="C161" s="8">
         <v>45327</v>
       </c>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
       <c r="F161" s="29" t="s">
         <v>72</v>
       </c>
@@ -3419,8 +3446,8 @@
       <c r="C162" s="8">
         <v>45328</v>
       </c>
-      <c r="D162" s="36"/>
-      <c r="E162" s="36"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
       <c r="F162" s="29" t="s">
         <v>73</v>
       </c>
@@ -3435,8 +3462,8 @@
       <c r="C163" s="8">
         <v>45329</v>
       </c>
-      <c r="D163" s="36"/>
-      <c r="E163" s="36"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
       <c r="F163" s="29" t="s">
         <v>74</v>
       </c>
@@ -3451,8 +3478,8 @@
       <c r="C164" s="8">
         <v>45330</v>
       </c>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
       <c r="F164" s="29" t="s">
         <v>75</v>
       </c>
@@ -3464,11 +3491,11 @@
       <c r="B165" s="29">
         <v>9</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="11">
         <v>45336</v>
       </c>
-      <c r="D165" s="36"/>
-      <c r="E165" s="36"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
       <c r="F165" s="29" t="s">
         <v>76</v>
       </c>
@@ -3480,11 +3507,11 @@
       <c r="B166" s="29">
         <v>10</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="8">
         <v>45337</v>
       </c>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
       <c r="F166" s="29" t="s">
         <v>77</v>
       </c>
@@ -3496,11 +3523,11 @@
       <c r="B167" s="29">
         <v>11</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="35">
         <v>45341</v>
       </c>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
       <c r="F167" s="29" t="s">
         <v>78</v>
       </c>
@@ -3512,16 +3539,18 @@
       <c r="B168" s="29">
         <v>1</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="8">
         <v>45342</v>
       </c>
-      <c r="D168" s="35">
+      <c r="D168" s="36">
         <v>3</v>
       </c>
-      <c r="E168" s="35" t="s">
+      <c r="E168" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F168" s="29"/>
+      <c r="F168" s="29" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
@@ -3530,12 +3559,14 @@
       <c r="B169" s="29">
         <v>2</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="8">
         <v>45343</v>
       </c>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="29"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="29" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
@@ -3544,12 +3575,14 @@
       <c r="B170" s="29">
         <v>3</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="8">
         <v>45344</v>
       </c>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="29"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="29" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
@@ -3558,12 +3591,14 @@
       <c r="B171" s="29">
         <v>4</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="8">
         <v>45348</v>
       </c>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="29"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="29" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="30">
@@ -3572,12 +3607,14 @@
       <c r="B172" s="29">
         <v>5</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="8">
         <v>45349</v>
       </c>
-      <c r="D172" s="36"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="29"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="30">
@@ -3586,30 +3623,34 @@
       <c r="B173" s="29">
         <v>6</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="8">
         <v>45350</v>
       </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="29"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B174" s="29"/>
-      <c r="C174" s="9">
+      <c r="C174" s="8">
         <v>45351</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="29"/>
+      <c r="F174" s="29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="34"/>
       <c r="C175" s="9">
@@ -3619,7 +3660,9 @@
       <c r="E175" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F175" s="34"/>
+      <c r="F175" s="34" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <sortState columnSort="1" ref="D3:J3">
